--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
   <si>
     <t>API Mode</t>
   </si>
@@ -979,6 +979,33 @@
   </si>
   <si>
     <t>RMA-UTNX-1-2</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-001</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-002</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcDAAU</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcEAAU</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcFAAU</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-1-3</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="327" x14ac:knownFonts="1">
+  <fonts count="339" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1035,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2962,7 +3061,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="163">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -3456,11 +3555,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3786,8 +3903,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="326" fillId="0" borderId="162" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4655,12 +4784,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.99609375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4710,10 +4839,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4722,7 +4851,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4739,10 +4868,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4751,7 +4880,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4768,10 +4897,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4780,7 +4909,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="330">
   <si>
     <t>API Mode</t>
   </si>
@@ -1006,6 +1006,33 @@
   </si>
   <si>
     <t>RMA-VQUG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-BHC9-001</t>
+  </si>
+  <si>
+    <t>RMA-BHC9-002</t>
+  </si>
+  <si>
+    <t>RMA-BHC9-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLjdAAE</t>
+  </si>
+  <si>
+    <t>RMA-BHC9-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLjeAAE</t>
+  </si>
+  <si>
+    <t>RMA-BHC9-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLjfAAE</t>
+  </si>
+  <si>
+    <t>RMA-BHC9-1-3</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1042,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="339" x14ac:knownFonts="1">
+  <fonts count="351" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1062,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3061,7 +3160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="175">
     <border>
       <left/>
       <right/>
@@ -3573,11 +3672,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="351">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3915,8 +4032,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="350" fillId="0" borderId="174" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4784,12 +4913,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.48828125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.72265625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4839,10 +4968,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4851,7 +4980,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4868,10 +4997,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4880,7 +5009,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4897,10 +5026,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4909,7 +5038,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="339">
   <si>
     <t>API Mode</t>
   </si>
@@ -1033,6 +1033,33 @@
   </si>
   <si>
     <t>RMA-BHC9-1-3</t>
+  </si>
+  <si>
+    <t>RMA-CW3O-001</t>
+  </si>
+  <si>
+    <t>RMA-CW3O-002</t>
+  </si>
+  <si>
+    <t>RMA-CW3O-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLkCAAU</t>
+  </si>
+  <si>
+    <t>RMA-CW3O-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLkDAAU</t>
+  </si>
+  <si>
+    <t>RMA-CW3O-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLkEAAU</t>
+  </si>
+  <si>
+    <t>RMA-CW3O-1-3</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1069,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="351" x14ac:knownFonts="1">
+  <fonts count="363" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,6 +1089,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3160,7 +3259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="175">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -3690,11 +3789,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="363">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4044,8 +4161,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="350" fillId="0" borderId="174" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="362" fillId="0" borderId="180" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4913,12 +5042,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.48828125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.3359375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.72265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.73046875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4968,10 +5097,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4980,7 +5109,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4997,10 +5126,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5009,7 +5138,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,10 +5155,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5038,7 +5167,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
   <si>
     <t>API Mode</t>
   </si>
@@ -1006,60 +1006,6 @@
   </si>
   <si>
     <t>RMA-VQUG-1-3</t>
-  </si>
-  <si>
-    <t>RMA-BHC9-001</t>
-  </si>
-  <si>
-    <t>RMA-BHC9-002</t>
-  </si>
-  <si>
-    <t>RMA-BHC9-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLjdAAE</t>
-  </si>
-  <si>
-    <t>RMA-BHC9-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLjeAAE</t>
-  </si>
-  <si>
-    <t>RMA-BHC9-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLjfAAE</t>
-  </si>
-  <si>
-    <t>RMA-BHC9-1-3</t>
-  </si>
-  <si>
-    <t>RMA-CW3O-001</t>
-  </si>
-  <si>
-    <t>RMA-CW3O-002</t>
-  </si>
-  <si>
-    <t>RMA-CW3O-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLkCAAU</t>
-  </si>
-  <si>
-    <t>RMA-CW3O-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLkDAAU</t>
-  </si>
-  <si>
-    <t>RMA-CW3O-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLkEAAU</t>
-  </si>
-  <si>
-    <t>RMA-CW3O-1-3</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="363" x14ac:knownFonts="1">
+  <fonts count="339" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,150 +1035,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3259,7 +3061,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="181">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -3771,47 +3573,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4149,32 +3915,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="362" fillId="0" borderId="180" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5042,12 +4784,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.73046875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5097,10 +4839,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -5109,7 +4851,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5126,10 +4868,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5138,7 +4880,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5155,10 +4897,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5167,7 +4909,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="348">
   <si>
     <t>API Mode</t>
   </si>
@@ -1006,6 +1006,87 @@
   </si>
   <si>
     <t>RMA-VQUG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-JXBN-001</t>
+  </si>
+  <si>
+    <t>RMA-JXBN-002</t>
+  </si>
+  <si>
+    <t>RMA-JXBN-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLy4AAE</t>
+  </si>
+  <si>
+    <t>RMA-JXBN-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLy5AAE</t>
+  </si>
+  <si>
+    <t>RMA-JXBN-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLy6AAE</t>
+  </si>
+  <si>
+    <t>RMA-JXBN-1-3</t>
+  </si>
+  <si>
+    <t>RMA-7C77-001</t>
+  </si>
+  <si>
+    <t>RMA-7C77-002</t>
+  </si>
+  <si>
+    <t>RMA-7C77-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLy9AAE</t>
+  </si>
+  <si>
+    <t>RMA-7C77-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLyAAAU</t>
+  </si>
+  <si>
+    <t>RMA-7C77-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLyBAAU</t>
+  </si>
+  <si>
+    <t>RMA-7C77-1-3</t>
+  </si>
+  <si>
+    <t>RMA-QXZZ-001</t>
+  </si>
+  <si>
+    <t>RMA-QXZZ-002</t>
+  </si>
+  <si>
+    <t>RMA-QXZZ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLyJAAU</t>
+  </si>
+  <si>
+    <t>RMA-QXZZ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLyKAAU</t>
+  </si>
+  <si>
+    <t>RMA-QXZZ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLyLAAU</t>
+  </si>
+  <si>
+    <t>RMA-QXZZ-1-3</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1096,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="339" x14ac:knownFonts="1">
+  <fonts count="375" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1116,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3061,7 +3358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="187">
     <border>
       <left/>
       <right/>
@@ -3573,11 +3870,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="375">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3915,8 +4266,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="374" fillId="0" borderId="186" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4784,12 +5171,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.31640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.515625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4839,10 +5226,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4851,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4868,10 +5255,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4880,7 +5267,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4897,10 +5284,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4909,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
   <si>
     <t>API Mode</t>
   </si>
@@ -1006,87 +1006,6 @@
   </si>
   <si>
     <t>RMA-VQUG-1-3</t>
-  </si>
-  <si>
-    <t>RMA-JXBN-001</t>
-  </si>
-  <si>
-    <t>RMA-JXBN-002</t>
-  </si>
-  <si>
-    <t>RMA-JXBN-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLy4AAE</t>
-  </si>
-  <si>
-    <t>RMA-JXBN-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLy5AAE</t>
-  </si>
-  <si>
-    <t>RMA-JXBN-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLy6AAE</t>
-  </si>
-  <si>
-    <t>RMA-JXBN-1-3</t>
-  </si>
-  <si>
-    <t>RMA-7C77-001</t>
-  </si>
-  <si>
-    <t>RMA-7C77-002</t>
-  </si>
-  <si>
-    <t>RMA-7C77-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLy9AAE</t>
-  </si>
-  <si>
-    <t>RMA-7C77-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLyAAAU</t>
-  </si>
-  <si>
-    <t>RMA-7C77-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLyBAAU</t>
-  </si>
-  <si>
-    <t>RMA-7C77-1-3</t>
-  </si>
-  <si>
-    <t>RMA-QXZZ-001</t>
-  </si>
-  <si>
-    <t>RMA-QXZZ-002</t>
-  </si>
-  <si>
-    <t>RMA-QXZZ-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLyJAAU</t>
-  </si>
-  <si>
-    <t>RMA-QXZZ-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLyKAAU</t>
-  </si>
-  <si>
-    <t>RMA-QXZZ-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xLyLAAU</t>
-  </si>
-  <si>
-    <t>RMA-QXZZ-1-3</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="375" x14ac:knownFonts="1">
+  <fonts count="339" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,222 +1035,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3358,7 +3061,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="187">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -3870,65 +3573,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4266,44 +3915,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="374" fillId="0" borderId="186" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5171,12 +4784,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.31640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5226,10 +4839,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -5238,7 +4851,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5255,10 +4868,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5267,7 +4880,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5284,10 +4897,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5296,7 +4909,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="348">
   <si>
     <t>API Mode</t>
   </si>
@@ -1006,6 +1006,87 @@
   </si>
   <si>
     <t>RMA-VQUG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-59NG-001</t>
+  </si>
+  <si>
+    <t>RMA-59NG-002</t>
+  </si>
+  <si>
+    <t>RMA-59NG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xM9gAAE</t>
+  </si>
+  <si>
+    <t>RMA-59NG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xM9hAAE</t>
+  </si>
+  <si>
+    <t>RMA-59NG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xM9iAAE</t>
+  </si>
+  <si>
+    <t>RMA-59NG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-3UQ9-001</t>
+  </si>
+  <si>
+    <t>RMA-3UQ9-002</t>
+  </si>
+  <si>
+    <t>RMA-3UQ9-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAAAA2</t>
+  </si>
+  <si>
+    <t>RMA-3UQ9-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMABAA2</t>
+  </si>
+  <si>
+    <t>RMA-3UQ9-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMACAA2</t>
+  </si>
+  <si>
+    <t>RMA-3UQ9-1-3</t>
+  </si>
+  <si>
+    <t>RMA-5P0L-001</t>
+  </si>
+  <si>
+    <t>RMA-5P0L-002</t>
+  </si>
+  <si>
+    <t>RMA-5P0L-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMBNAA2</t>
+  </si>
+  <si>
+    <t>RMA-5P0L-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMBOAA2</t>
+  </si>
+  <si>
+    <t>RMA-5P0L-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMBPAA2</t>
+  </si>
+  <si>
+    <t>RMA-5P0L-1-3</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1096,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="339" x14ac:knownFonts="1">
+  <fonts count="375" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1116,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3061,7 +3358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="187">
     <border>
       <left/>
       <right/>
@@ -3573,11 +3870,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="375">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3915,8 +4266,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="374" fillId="0" borderId="186" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4784,12 +5171,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.92578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.69140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4839,10 +5226,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4851,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4868,10 +5255,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4880,7 +5267,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4897,10 +5284,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4909,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>API Mode</t>
   </si>
@@ -304,6 +304,33 @@
   </si>
   <si>
     <t>RMA-3ZA5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-FVUC-001</t>
+  </si>
+  <si>
+    <t>RMA-FVUC-002</t>
+  </si>
+  <si>
+    <t>RMA-FVUC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMwsAAE</t>
+  </si>
+  <si>
+    <t>RMA-FVUC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMwtAAE</t>
+  </si>
+  <si>
+    <t>RMA-FVUC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMwuAAE</t>
+  </si>
+  <si>
+    <t>RMA-FVUC-1-3</t>
   </si>
 </sst>
 </file>
@@ -313,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +360,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -499,7 +598,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -546,11 +645,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -578,8 +695,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1448,11 +1577,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.16796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4765625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.828125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1502,10 +1631,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1514,7 +1643,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1531,10 +1660,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1543,7 +1672,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1560,10 +1689,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1572,7 +1701,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>API Mode</t>
   </si>
@@ -304,33 +304,6 @@
   </si>
   <si>
     <t>RMA-3ZA5-1-3</t>
-  </si>
-  <si>
-    <t>RMA-FVUC-001</t>
-  </si>
-  <si>
-    <t>RMA-FVUC-002</t>
-  </si>
-  <si>
-    <t>RMA-FVUC-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMwsAAE</t>
-  </si>
-  <si>
-    <t>RMA-FVUC-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMwtAAE</t>
-  </si>
-  <si>
-    <t>RMA-FVUC-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMwuAAE</t>
-  </si>
-  <si>
-    <t>RMA-FVUC-1-3</t>
   </si>
 </sst>
 </file>
@@ -340,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,78 +333,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -598,7 +499,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -645,29 +546,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -695,20 +578,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1577,11 +1448,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.16796875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.828125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1631,10 +1502,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1643,7 +1514,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1660,10 +1531,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1672,7 +1543,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1689,10 +1560,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1701,7 +1572,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3CE5841B-89FD-450C-9A98-580B885A8BE1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857421E7-9535-4CD6-8E1E-4EA42BEA4F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="1" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" r:id="rId1" sheetId="1"/>
-    <sheet name="AddLine" r:id="rId2" sheetId="2"/>
-    <sheet name="FirmAllLines" r:id="rId3" sheetId="3"/>
-    <sheet name="Allocate" r:id="rId4" sheetId="5"/>
-    <sheet name="PickPackShip" r:id="rId5" sheetId="13"/>
-    <sheet name="CreateInvoice" r:id="rId6" sheetId="18"/>
-    <sheet name="RMA Header" r:id="rId7" sheetId="19"/>
-    <sheet name="RMA Details Maintenance Grid" r:id="rId8" sheetId="20"/>
-    <sheet name="Receipt" r:id="rId9" sheetId="21"/>
-    <sheet name="Inspection Order Qty" r:id="rId10" sheetId="22"/>
+    <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
+    <sheet name="AddLine" sheetId="2" r:id="rId2"/>
+    <sheet name="FirmAllLines" sheetId="3" r:id="rId3"/>
+    <sheet name="Allocate" sheetId="5" r:id="rId4"/>
+    <sheet name="PickPackShip" sheetId="13" r:id="rId5"/>
+    <sheet name="CreateInvoice" sheetId="18" r:id="rId6"/>
+    <sheet name="RMA Header" sheetId="19" r:id="rId7"/>
+    <sheet name="RMA Details Maintenance Grid" sheetId="20" r:id="rId8"/>
+    <sheet name="Receipt" sheetId="21" r:id="rId9"/>
+    <sheet name="Inspection Order Qty" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>API Mode</t>
   </si>
@@ -177,21 +177,12 @@
     <t>Lot Number</t>
   </si>
   <si>
-    <t>LT-1</t>
-  </si>
-  <si>
     <t>Txn Comments</t>
   </si>
   <si>
     <t>Location Comments</t>
   </si>
   <si>
-    <t>Test comments</t>
-  </si>
-  <si>
-    <t>Loc Comm</t>
-  </si>
-  <si>
     <t>a8d5f0000004JbG</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>a7S5f000000kViG</t>
   </si>
   <si>
-    <t>a7S5f000000kViL</t>
-  </si>
-  <si>
     <t>a7S5f000000kViQ</t>
   </si>
   <si>
@@ -216,9 +204,6 @@
     <t>Pro_Customer1 (4)</t>
   </si>
   <si>
-    <t>Pro-Stock Product Lot Track (Lot track)</t>
-  </si>
-  <si>
     <t>Inspection</t>
   </si>
   <si>
@@ -234,86 +219,17 @@
     <t>Quantity in Other Disposition</t>
   </si>
   <si>
-    <t>RMA-UT4B-001</t>
-  </si>
-  <si>
-    <t>RMA-UT4B-002</t>
-  </si>
-  <si>
-    <t>RMA-UT4B-003</t>
-  </si>
-  <si>
-    <t>RMA-UT4B-1-1</t>
-  </si>
-  <si>
-    <t>RMA-UT4B-1-2</t>
-  </si>
-  <si>
-    <t>RMA-UT4B-1-3</t>
-  </si>
-  <si>
-    <t>RMA-5IJ4-001</t>
-  </si>
-  <si>
-    <t>RMA-5IJ4-002</t>
-  </si>
-  <si>
-    <t>RMA-5IJ4-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMtKAAU</t>
-  </si>
-  <si>
-    <t>RMA-5IJ4-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMtLAAU</t>
-  </si>
-  <si>
-    <t>RMA-5IJ4-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMtMAAU</t>
-  </si>
-  <si>
-    <t>RMA-5IJ4-1-3</t>
-  </si>
-  <si>
-    <t>RMA-3ZA5-001</t>
-  </si>
-  <si>
-    <t>RMA-3ZA5-002</t>
-  </si>
-  <si>
-    <t>RMA-3ZA5-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMteAAE</t>
-  </si>
-  <si>
-    <t>RMA-3ZA5-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMtfAAE</t>
-  </si>
-  <si>
-    <t>RMA-3ZA5-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xMtgAAE</t>
-  </si>
-  <si>
-    <t>RMA-3ZA5-1-3</t>
+    <t>a7s5f000000xNYrAAM</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYsAAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,162 +250,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -499,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -507,85 +267,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -602,10 +297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -640,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -675,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -769,21 +464,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -800,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -852,14 +547,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -868,12 +563,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -907,42 +602,42 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -950,16 +645,16 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -967,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,54 +679,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1086,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1127,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1160,65 +838,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>200</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1239,13 +876,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1254,9 +891,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1282,13 +919,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1297,9 +934,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="21.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="21.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1325,12 +962,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1339,9 +976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1367,13 +1004,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1382,12 +1019,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1415,45 +1052,44 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+      <selection activeCell="E2" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.48046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.16796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.828125" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1493,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1501,12 +1137,6 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
@@ -1514,7 +1144,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1522,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1530,12 +1160,6 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -1543,62 +1167,33 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1621,10 +1216,10 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
       </c>
       <c r="I1" t="s">
         <v>43</v>
@@ -1638,7 +1233,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1646,34 +1241,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857421E7-9535-4CD6-8E1E-4EA42BEA4F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{857421E7-9535-4CD6-8E1E-4EA42BEA4F8F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" firstSheet="1" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
-    <sheet name="AddLine" sheetId="2" r:id="rId2"/>
-    <sheet name="FirmAllLines" sheetId="3" r:id="rId3"/>
-    <sheet name="Allocate" sheetId="5" r:id="rId4"/>
-    <sheet name="PickPackShip" sheetId="13" r:id="rId5"/>
-    <sheet name="CreateInvoice" sheetId="18" r:id="rId6"/>
-    <sheet name="RMA Header" sheetId="19" r:id="rId7"/>
-    <sheet name="RMA Details Maintenance Grid" sheetId="20" r:id="rId8"/>
-    <sheet name="Receipt" sheetId="21" r:id="rId9"/>
-    <sheet name="Inspection Order Qty" sheetId="22" r:id="rId10"/>
+    <sheet name="AddHeader" r:id="rId1" sheetId="1"/>
+    <sheet name="AddLine" r:id="rId2" sheetId="2"/>
+    <sheet name="FirmAllLines" r:id="rId3" sheetId="3"/>
+    <sheet name="Allocate" r:id="rId4" sheetId="5"/>
+    <sheet name="PickPackShip" r:id="rId5" sheetId="13"/>
+    <sheet name="CreateInvoice" r:id="rId6" sheetId="18"/>
+    <sheet name="RMA Header" r:id="rId7" sheetId="19"/>
+    <sheet name="RMA Details Maintenance Grid" r:id="rId8" sheetId="20"/>
+    <sheet name="Receipt" r:id="rId9" sheetId="21"/>
+    <sheet name="Inspection Order Qty" r:id="rId10" sheetId="22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>API Mode</t>
   </si>
@@ -223,13 +223,34 @@
   </si>
   <si>
     <t>a7s5f000000xNYsAAM</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-001</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-002</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNgXAAU</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNgYAAU</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-1-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +271,54 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -267,20 +336,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="11">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,10 +386,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -335,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -370,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -464,21 +553,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -495,7 +584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -547,14 +636,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -563,12 +652,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -618,13 +707,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -633,11 +722,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,12 +772,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -697,19 +786,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -839,13 +928,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -854,8 +943,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,13 +965,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -891,9 +980,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -919,13 +1008,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -934,9 +1023,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="21.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,12 +1051,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -976,9 +1065,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,13 +1093,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1019,12 +1108,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1065,13 +1154,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1080,16 +1169,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.48046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.92578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.05078125" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1137,6 +1227,12 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
@@ -1144,7 +1240,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1160,6 +1256,12 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -1167,17 +1269,17 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1186,14 +1288,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1248,7 +1350,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>